--- a/Backup/v2_Correlation Table_02Mar2021.xlsx
+++ b/Backup/v2_Correlation Table_02Mar2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoheikato/yohei-kato/GUI_study/Backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC503D6D-8BD9-8E4F-B49A-6904F727349B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787C3D49-9511-8C47-AB56-DA1CB28203D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1040" windowWidth="28040" windowHeight="16940" xr2:uid="{0E1968BE-8067-AE43-B02F-228CD4998DAE}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
